--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/12.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/12.xlsx
@@ -479,13 +479,13 @@
         <v>-0.00979667922367876</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626647123490777</v>
+        <v>-1.627252333842917</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02167671846915265</v>
+        <v>0.01814776759919651</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2251987365921324</v>
+        <v>-0.2266940547573681</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0161689803021774</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.650775262601195</v>
+        <v>-1.652182435695638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02256289123444493</v>
+        <v>0.01867821204307484</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2005039505980459</v>
+        <v>-0.2023077765110565</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.04939809327444931</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705184381567196</v>
+        <v>-1.705405531253739</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01799328544498859</v>
+        <v>-0.02113660163022606</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.210513138190397</v>
+        <v>-0.2122193749178869</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.08991198679046748</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.816059862490738</v>
+        <v>-1.816766597076202</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02571699727321106</v>
+        <v>-0.02693528807309779</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2302560600288715</v>
+        <v>-0.2311453808324064</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1401041652807613</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782751256855333</v>
+        <v>-1.781481023424443</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00667293992459404</v>
+        <v>-0.005349189843580162</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2245250564082157</v>
+        <v>-0.2258960270628686</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1996012836656501</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.604765896676015</v>
+        <v>-1.60350117231205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05709844477490333</v>
+        <v>0.05888653049670091</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2073965803302217</v>
+        <v>-0.2099228810199092</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.266164089281344</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.344317674731754</v>
+        <v>-1.343215074337283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08957990336206433</v>
+        <v>0.09452547144119108</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1964115008826642</v>
+        <v>-0.1988181761191329</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.3364790224625213</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9365798265022208</v>
+        <v>-0.9369087964985727</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1869817806072722</v>
+        <v>0.1903800878901604</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1705739770065134</v>
+        <v>-0.1737660877845112</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4063670612040306</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4933785404602223</v>
+        <v>-0.4942741573402424</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2005876018917953</v>
+        <v>0.2048846740929462</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1232196117421822</v>
+        <v>-0.1275875148037916</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4733101052965238</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01486256141272152</v>
+        <v>-0.01873622247024251</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1740165851051184</v>
+        <v>0.1784411528550947</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05838104207844293</v>
+        <v>-0.06347456795497196</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.5358133814370868</v>
       </c>
       <c r="E12" t="n">
-        <v>0.542403168292574</v>
+        <v>0.5354349856425759</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1386468014303707</v>
+        <v>0.1414139270456173</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03487644282038022</v>
+        <v>0.0298065272306707</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5937132658395092</v>
       </c>
       <c r="E13" t="n">
-        <v>1.114337182189271</v>
+        <v>1.103959674122535</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01825165286120235</v>
+        <v>0.02284464065715776</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1361614252378369</v>
+        <v>0.1323759092511087</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6489849464960012</v>
       </c>
       <c r="E14" t="n">
-        <v>1.724327830400775</v>
+        <v>1.710306468068229</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1878976314555487</v>
+        <v>-0.1815354461672513</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2556326245828017</v>
+        <v>0.2520533051009639</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7057124236135861</v>
       </c>
       <c r="E15" t="n">
-        <v>2.37086562858976</v>
+        <v>2.353570306484909</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4611662391428037</v>
+        <v>-0.4544341593610007</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3796968117237219</v>
+        <v>0.3753509449298107</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7684932273620756</v>
       </c>
       <c r="E16" t="n">
-        <v>2.996470546484568</v>
+        <v>2.977590187124566</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6964395992609814</v>
+        <v>-0.6910895082676805</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5289878033217282</v>
+        <v>0.5232662438158002</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8420301416683929</v>
       </c>
       <c r="E17" t="n">
-        <v>3.596727460449949</v>
+        <v>3.577422115927196</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9402221067489107</v>
+        <v>-0.9338174229443381</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6912833408999208</v>
+        <v>0.6847621796803721</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9257192167808932</v>
       </c>
       <c r="E18" t="n">
-        <v>4.169654680412187</v>
+        <v>4.146064855841253</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.162731745812461</v>
+        <v>-1.157630349840326</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8269622151369188</v>
+        <v>0.8199625521044946</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.01655907994494</v>
       </c>
       <c r="E19" t="n">
-        <v>4.646840613302189</v>
+        <v>4.620556067995588</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.373583412254098</v>
+        <v>-1.371802409618346</v>
       </c>
       <c r="G19" t="n">
-        <v>1.002156839414171</v>
+        <v>0.9955192007796456</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.108630566208054</v>
       </c>
       <c r="E20" t="n">
-        <v>5.016184200115394</v>
+        <v>4.985618322798857</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.546786902342904</v>
+        <v>-1.547082030928148</v>
       </c>
       <c r="G20" t="n">
-        <v>1.136740196342743</v>
+        <v>1.130178110626041</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.195478162946291</v>
       </c>
       <c r="E21" t="n">
-        <v>5.353173823890265</v>
+        <v>5.322408046145322</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.762214242370162</v>
+        <v>-1.762850933104728</v>
       </c>
       <c r="G21" t="n">
-        <v>1.269220663725258</v>
+        <v>1.262998566138757</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.27229628380305</v>
       </c>
       <c r="E22" t="n">
-        <v>5.651425263070805</v>
+        <v>5.61684563699495</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.914835858428841</v>
+        <v>-1.917587243852874</v>
       </c>
       <c r="G22" t="n">
-        <v>1.377111804394814</v>
+        <v>1.370560736811961</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.337017049120402</v>
       </c>
       <c r="E23" t="n">
-        <v>5.816215620956259</v>
+        <v>5.779641712653716</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.04499779564568</v>
+        <v>-2.047852279322159</v>
       </c>
       <c r="G23" t="n">
-        <v>1.487595354557152</v>
+        <v>1.479221572831832</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.38968084195857</v>
       </c>
       <c r="E24" t="n">
-        <v>5.976735664965624</v>
+        <v>5.938438205725258</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.139120991061219</v>
+        <v>-2.141791314500505</v>
       </c>
       <c r="G24" t="n">
-        <v>1.526295762692572</v>
+        <v>1.520056350895736</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.431192009741922</v>
       </c>
       <c r="E25" t="n">
-        <v>6.071431803341317</v>
+        <v>6.031277001537815</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.172703476023729</v>
+        <v>-2.175650826828365</v>
       </c>
       <c r="G25" t="n">
-        <v>1.598020666012002</v>
+        <v>1.591781254215166</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.464805685787468</v>
       </c>
       <c r="E26" t="n">
-        <v>6.12597786197087</v>
+        <v>6.087291620007543</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.19493492209298</v>
+        <v>-2.197859449620357</v>
       </c>
       <c r="G26" t="n">
-        <v>1.668522556474181</v>
+        <v>1.66017238503568</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.491486572380411</v>
       </c>
       <c r="E27" t="n">
-        <v>6.114049945069654</v>
+        <v>6.07558721382155</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.188653011779869</v>
+        <v>-2.192219739108737</v>
       </c>
       <c r="G27" t="n">
-        <v>1.640783617499499</v>
+        <v>1.632667974910072</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.51263400380823</v>
       </c>
       <c r="E28" t="n">
-        <v>6.05348955937761</v>
+        <v>6.01413593330685</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.202180919117888</v>
+        <v>-2.205513904607242</v>
       </c>
       <c r="G28" t="n">
-        <v>1.63360923834461</v>
+        <v>1.626439581247086</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.527617813767722</v>
       </c>
       <c r="E29" t="n">
-        <v>5.951634782038242</v>
+        <v>5.913530927149796</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.152939304927117</v>
+        <v>-2.156225856852393</v>
       </c>
       <c r="G29" t="n">
-        <v>1.607019333328478</v>
+        <v>1.599767827236645</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.534011251426382</v>
       </c>
       <c r="E30" t="n">
-        <v>5.820490656889712</v>
+        <v>5.782015333488638</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.15201063364555</v>
+        <v>-2.153604328005867</v>
       </c>
       <c r="G30" t="n">
-        <v>1.541829757400688</v>
+        <v>1.533895127010211</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.529023000169917</v>
       </c>
       <c r="E31" t="n">
-        <v>5.621366219911326</v>
+        <v>5.585143317872833</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.094534538421695</v>
+        <v>-2.097765212668164</v>
       </c>
       <c r="G31" t="n">
-        <v>1.478486505902185</v>
+        <v>1.47048104465125</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.509541525612273</v>
       </c>
       <c r="E32" t="n">
-        <v>5.438004010413644</v>
+        <v>5.402977362907341</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.0183268286448</v>
+        <v>-2.021161637082263</v>
       </c>
       <c r="G32" t="n">
-        <v>1.434590260647351</v>
+        <v>1.427612633882625</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.473705736738859</v>
       </c>
       <c r="E33" t="n">
-        <v>5.170488442614744</v>
+        <v>5.139045836647641</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.983192360828687</v>
+        <v>-1.984007702733521</v>
       </c>
       <c r="G33" t="n">
-        <v>1.374335234664839</v>
+        <v>1.368231188512435</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.420219076992082</v>
       </c>
       <c r="E34" t="n">
-        <v>4.942509087104673</v>
+        <v>4.915135320566133</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.914042552791705</v>
+        <v>-1.914524989652384</v>
       </c>
       <c r="G34" t="n">
-        <v>1.278842642613769</v>
+        <v>1.272433236751833</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.349564020140836</v>
       </c>
       <c r="E35" t="n">
-        <v>4.649996521640396</v>
+        <v>4.625394602774467</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.877145970569296</v>
+        <v>-1.877733866711102</v>
       </c>
       <c r="G35" t="n">
-        <v>1.192761110888956</v>
+        <v>1.186930944063658</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.263915194956001</v>
       </c>
       <c r="E36" t="n">
-        <v>4.273972797676389</v>
+        <v>4.25352156723333</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.837501150961095</v>
+        <v>-1.838857955443657</v>
       </c>
       <c r="G36" t="n">
-        <v>1.143310152155052</v>
+        <v>1.137610628916823</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.167299521407801</v>
       </c>
       <c r="E37" t="n">
-        <v>3.961156959566455</v>
+        <v>3.943019537231707</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.795655852621317</v>
+        <v>-1.798773197491053</v>
       </c>
       <c r="G37" t="n">
-        <v>1.060401842978781</v>
+        <v>1.054938422608747</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.063869337773749</v>
       </c>
       <c r="E38" t="n">
-        <v>3.673610424429882</v>
+        <v>3.65862733641422</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.71873039012511</v>
+        <v>-1.721571494639057</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9815686693075576</v>
+        <v>0.9785009060401425</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9573046420142443</v>
       </c>
       <c r="E39" t="n">
-        <v>3.327585930898745</v>
+        <v>3.31625299322538</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.682392584690762</v>
+        <v>-1.684833101338339</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8979473294693372</v>
+        <v>0.895129835242209</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8505021648983268</v>
       </c>
       <c r="E40" t="n">
-        <v>2.996947474278322</v>
+        <v>2.987289292950021</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.645289805963462</v>
+        <v>-1.646900814534113</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8365763239298234</v>
+        <v>0.8344151956762775</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7466758587409404</v>
       </c>
       <c r="E41" t="n">
-        <v>2.674105134365702</v>
+        <v>2.667214078652647</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.625145509249056</v>
+        <v>-1.625918352637614</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7825276553426004</v>
+        <v>0.780991412680211</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6477628067722864</v>
       </c>
       <c r="E42" t="n">
-        <v>2.337957610820727</v>
+        <v>2.333230831399461</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.573887576563899</v>
+        <v>-1.5744935739256</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7199352109649573</v>
+        <v>0.7197416066130373</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5553927265509153</v>
       </c>
       <c r="E43" t="n">
-        <v>2.07984995530984</v>
+        <v>2.077115884096141</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.52105405073832</v>
+        <v>-1.522653254165562</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6439982324769269</v>
+        <v>0.6442721118040332</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.469593908350313</v>
       </c>
       <c r="E44" t="n">
-        <v>1.826670553667746</v>
+        <v>1.824159993169271</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.503290457944881</v>
+        <v>-1.504162464538082</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5591979523168523</v>
+        <v>0.5590799008827547</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.389880120597284</v>
       </c>
       <c r="E45" t="n">
-        <v>1.601069541049961</v>
+        <v>1.598784065285832</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.425759785096534</v>
+        <v>-1.426656975995675</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5050894710030199</v>
+        <v>0.5050816009074134</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3164980695590267</v>
       </c>
       <c r="E46" t="n">
-        <v>1.387697082985561</v>
+        <v>1.386889611176334</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.362551112232901</v>
+        <v>-1.365074264884346</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4420043586404096</v>
+        <v>0.4427850721245747</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2493931896409286</v>
       </c>
       <c r="E47" t="n">
-        <v>1.236468473849234</v>
+        <v>1.235771183378497</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.314880369125189</v>
+        <v>-1.31899642912739</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3777702123192498</v>
+        <v>0.3789617447940745</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1883349784131936</v>
       </c>
       <c r="E48" t="n">
-        <v>1.026160631014006</v>
+        <v>1.026705241629976</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.237626723642191</v>
+        <v>-1.24095420006462</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2925780013979714</v>
+        <v>0.2939127696128344</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1323950093480831</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8687303865397539</v>
+        <v>0.8698321999246643</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.16724445863323</v>
+        <v>-1.170356294436042</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2483952846630611</v>
+        <v>0.249881158713569</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.08102206433004587</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7706737173400849</v>
+        <v>0.7715661861818625</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.094336679944143</v>
+        <v>-1.097945118779725</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2111051976603265</v>
+        <v>0.211981926310891</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.03421689001640139</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6349287342999923</v>
+        <v>0.636759318538065</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.062399044963391</v>
+        <v>-1.065106357852029</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1692410110910921</v>
+        <v>0.1705065224646179</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.00793730096209269</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4626633596074811</v>
+        <v>0.4638832244264892</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.025881801349215</v>
+        <v>-1.029279321622543</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1265362983110832</v>
+        <v>0.1280095802086206</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04535974821505284</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4032095093577115</v>
+        <v>0.4039681865741785</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.026320165674498</v>
+        <v>-1.028318382948989</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09977482521072888</v>
+        <v>0.1007034964922963</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.0777967909403926</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2464387788952844</v>
+        <v>0.2460012015795628</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9658046395274108</v>
+        <v>-0.9681648811998012</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05363245466979921</v>
+        <v>0.05426521035656209</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1050186351256583</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1280977252794135</v>
+        <v>0.1274382112675885</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.942616189832409</v>
+        <v>-0.9442405775655913</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02653886353485047</v>
+        <v>0.02725032017767838</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1269899570675659</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04043430433769295</v>
+        <v>0.03943480219566701</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9267374849367277</v>
+        <v>-0.9286326039587737</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.00873018291613404</v>
+        <v>-0.008124185554433274</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1440861850186381</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0713572557144458</v>
+        <v>-0.07300210569620502</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9277385610978749</v>
+        <v>-0.9292535545021269</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05047159599390698</v>
+        <v>-0.05030160192880651</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1569100963713675</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1278755603029896</v>
+        <v>-0.1280203700621493</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9079255954085025</v>
+        <v>-0.9102952811956206</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08099182675592731</v>
+        <v>-0.08031814657201063</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1665658828313011</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2077507346325143</v>
+        <v>-0.2082575687895731</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9175334081249219</v>
+        <v>-0.9196008822407503</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1057747578208066</v>
+        <v>-0.106320942455898</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1736820827556661</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3018597638759611</v>
+        <v>-0.3005580500626455</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9137620583102855</v>
+        <v>-0.9158555037416154</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1252044498541423</v>
+        <v>-0.1256436011889852</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1791287990199852</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3950039193980506</v>
+        <v>-0.3944183842849268</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.895315341218202</v>
+        <v>-0.8973056883970868</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1478813433347213</v>
+        <v>-0.1473335846805087</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1834866017376116</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.503998447471638</v>
+        <v>-0.5018011167783023</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8840925848833281</v>
+        <v>-0.8870840082233601</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1766953373692517</v>
+        <v>-0.1760468414912759</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1872485664066317</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5672866083008961</v>
+        <v>-0.5660840576922224</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.894048255825555</v>
+        <v>-0.8963046122359395</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1982877316752546</v>
+        <v>-0.1976140514913379</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1907653933081765</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6887772741784897</v>
+        <v>-0.6852058247922584</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.916322200411081</v>
+        <v>-0.9187579950012938</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2354581932247703</v>
+        <v>-0.2341328691246351</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1937605628709772</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8114783607603635</v>
+        <v>-0.807308784108038</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9501848607771833</v>
+        <v>-0.9542961987220208</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2813833491269605</v>
+        <v>-0.279302495848601</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.196010428117859</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9074596857485975</v>
+        <v>-0.9039149946874283</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9790696856721723</v>
+        <v>-0.9831849586648129</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3086154539445837</v>
+        <v>-0.3062497032052687</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1970643438045438</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9513181545445198</v>
+        <v>-0.9470383965537033</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.018120313062082</v>
+        <v>-1.022581083251848</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3491291321077421</v>
+        <v>-0.3454050028667446</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1967753679470666</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9969623480335579</v>
+        <v>-0.9930902609951582</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.030129291948045</v>
+        <v>-1.032739802660722</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3721759200818268</v>
+        <v>-0.3684832712232554</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1948080380306996</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.064871829002955</v>
+        <v>-1.057625044968486</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.079052167266753</v>
+        <v>-1.081011821072772</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3923579932551441</v>
+        <v>-0.3879916642126561</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1911021363876583</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.093203386176806</v>
+        <v>-1.084968905143722</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.124330401310088</v>
+        <v>-1.124053373944739</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4062691742491997</v>
+        <v>-0.4008104759365289</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1852069508966299</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.114512457040975</v>
+        <v>-1.103607652568604</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.133428231831206</v>
+        <v>-1.133340086760413</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.436240072337886</v>
+        <v>-0.4307010990500289</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1774709250637397</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.142229359747959</v>
+        <v>-1.128244986864763</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.176960878669019</v>
+        <v>-1.174563647547278</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4144367594696289</v>
+        <v>-0.4084790970955058</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1678332013826114</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.118412876423558</v>
+        <v>-1.101692858307542</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.200572739507651</v>
+        <v>-1.199846329683171</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4218739998177747</v>
+        <v>-0.4155558870648737</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1565066254820329</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.123427701344022</v>
+        <v>-1.104836174492779</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.223770633317381</v>
+        <v>-1.221278174038801</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4259774676670056</v>
+        <v>-0.4190769678392233</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1434982347827799</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.082883329807999</v>
+        <v>-1.06219127443938</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.240261631651248</v>
+        <v>-1.239262916518783</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4336035903097074</v>
+        <v>-0.4257618270473874</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.129032193959353</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9942243417720553</v>
+        <v>-0.9742862415625395</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.25720673450161</v>
+        <v>-1.253938283796229</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4073253410795924</v>
+        <v>-0.39921442054753</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.113101112230262</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9336293276593427</v>
+        <v>-0.9134999841265888</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.266017306533091</v>
+        <v>-1.264184361266336</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3901071459116842</v>
+        <v>-0.3821504792535092</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.09587049914057606</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7840369113996073</v>
+        <v>-0.76568227442612</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.252554720988606</v>
+        <v>-1.250120500417515</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3467366230433651</v>
+        <v>-0.3381172943351224</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.07716242179031063</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.67050448619931</v>
+        <v>-0.6526503873063964</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.272094594360433</v>
+        <v>-1.270617377415092</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.331550486561056</v>
+        <v>-0.3231987411034346</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.05703757577808378</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5114404098771477</v>
+        <v>-0.4955176324460699</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.266601267627093</v>
+        <v>-1.266429699542872</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3093158924535625</v>
+        <v>-0.3016866217726181</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.03523905461285202</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3661002062736061</v>
+        <v>-0.3510714717034271</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.283107219142613</v>
+        <v>-1.282154937574226</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2859637447699455</v>
+        <v>-0.2776025551975962</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.01150285416455111</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2039510524736944</v>
+        <v>-0.1898415450703551</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.295024117909981</v>
+        <v>-1.293596482566961</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2604048222782649</v>
+        <v>-0.252526856576155</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.01442852687111381</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.0084122310536313</v>
+        <v>0.005059798605581286</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.273389225087703</v>
+        <v>-1.273118493798839</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1951050650119846</v>
+        <v>-0.1891112001980716</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.0423091159926595</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1563340542964265</v>
+        <v>0.1691638841541484</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.27182465008113</v>
+        <v>-1.272261440387291</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1715797752250245</v>
+        <v>-0.1657165539981794</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.07140716215499089</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3267452344640455</v>
+        <v>0.3400960646509179</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.190979092963323</v>
+        <v>-1.191691336615712</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1257018398964733</v>
+        <v>-0.1204304498592373</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.100143795383131</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5317848353002795</v>
+        <v>0.5424456668088491</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.120670019843504</v>
+        <v>-1.120740850703962</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07209074862497193</v>
+        <v>-0.0676819210662087</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.125956940801721</v>
       </c>
       <c r="E87" t="n">
-        <v>0.721864958407672</v>
+        <v>0.7309155683551508</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.036757486467843</v>
+        <v>-1.037875040043966</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02544784000346864</v>
+        <v>-0.02200860822342664</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1457250731787313</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8807732068368255</v>
+        <v>0.888737743590607</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9110382182208746</v>
+        <v>-0.9124902508602745</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.001074153910127494</v>
+        <v>0.002679881694174646</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1559135580951496</v>
       </c>
       <c r="E89" t="n">
-        <v>1.021199322743666</v>
+        <v>1.028710541990513</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8038050175440227</v>
+        <v>-0.8061566021112458</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03249180385160967</v>
+        <v>0.03551392056450699</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1540970261007106</v>
       </c>
       <c r="E90" t="n">
-        <v>1.124206282079826</v>
+        <v>1.130379585073567</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6582003787281026</v>
+        <v>-0.6610635195097485</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05069533498945213</v>
+        <v>0.05346560864294134</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1390962033286359</v>
       </c>
       <c r="E91" t="n">
-        <v>1.224978134263738</v>
+        <v>1.229357055459197</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.484121734007853</v>
+        <v>-0.4869817267512563</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02540399574839268</v>
+        <v>0.02806881012075474</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1118543625147027</v>
       </c>
       <c r="E92" t="n">
-        <v>1.262729408869014</v>
+        <v>1.266338634714157</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3336659682600841</v>
+        <v>-0.3377363817077677</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0529115539122435</v>
+        <v>0.05491842829190188</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07532187252784479</v>
       </c>
       <c r="E93" t="n">
-        <v>1.292870301022801</v>
+        <v>1.295873529506243</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2257165888830404</v>
+        <v>-0.2299176459177919</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04152509958875432</v>
+        <v>0.04226646259488694</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03326614419175374</v>
       </c>
       <c r="E94" t="n">
-        <v>1.244579394381296</v>
+        <v>1.246499697709283</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09800697345718774</v>
+        <v>-0.1026818102474508</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05848987767813314</v>
+        <v>0.05939336465375973</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.009460732938090331</v>
       </c>
       <c r="E95" t="n">
-        <v>1.214874505524109</v>
+        <v>1.215644200874425</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01076381562085453</v>
+        <v>-0.01411332831098239</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01507370825529626</v>
+        <v>0.01570961198030174</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04968792718066635</v>
       </c>
       <c r="E96" t="n">
-        <v>1.126120289331328</v>
+        <v>1.126845912146247</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06683060500190548</v>
+        <v>0.06304981107254122</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02646465635582889</v>
+        <v>-0.02577523598069919</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08414835783239445</v>
       </c>
       <c r="E97" t="n">
-        <v>1.064661138721021</v>
+        <v>1.065171120916322</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1148208739912421</v>
+        <v>0.110857493843807</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0129973487539802</v>
+        <v>-0.01267152679587096</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1122862433306872</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9633950445330198</v>
+        <v>0.9640246521815401</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1107536085818012</v>
+        <v>0.1081265706683503</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06611104998315061</v>
+        <v>-0.06519024879718971</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1329785868327431</v>
       </c>
       <c r="E99" t="n">
-        <v>0.904599134275954</v>
+        <v>0.9044716387271285</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1240304598699725</v>
+        <v>0.1220802501786809</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05844557686241626</v>
+        <v>-0.05730283898035196</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1470848019355075</v>
       </c>
       <c r="E100" t="n">
-        <v>0.851639686920671</v>
+        <v>0.8523432734678924</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1165932195218267</v>
+        <v>0.1144651456698282</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06642742782653205</v>
+        <v>-0.06513358410882289</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.15397844838941</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7716228508702292</v>
+        <v>0.7718117331647854</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1107772188686207</v>
+        <v>0.1092000517090774</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0640317707239124</v>
+        <v>-0.0637830757027469</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1536265211575416</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7483226458176152</v>
+        <v>0.7476741499396393</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1095935564894026</v>
+        <v>0.1092331061106247</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06356428704488611</v>
+        <v>-0.06351077039476187</v>
       </c>
     </row>
   </sheetData>
